--- a/matrix.xlsx
+++ b/matrix.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="21">
   <si>
     <t>Melyik</t>
   </si>
@@ -56,6 +56,27 @@
   </si>
   <si>
     <t xml:space="preserve"> -e </t>
+  </si>
+  <si>
+    <t>oaszlop</t>
+  </si>
+  <si>
+    <t>elem</t>
+  </si>
+  <si>
+    <t>n-1</t>
+  </si>
+  <si>
+    <t>sor+x</t>
+  </si>
+  <si>
+    <t>oszlop+y</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -445,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,6 +838,78 @@
         <v>11</v>
       </c>
     </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>-1</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
